--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\California\eps-1.3.3-WIP-A-california\InputData\bldgs\SoCEUtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\SoCEUtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19425" windowHeight="11025" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="382">
   <si>
     <t>SoCEUtiNTY Share of Components Energy Use that is New This Year</t>
   </si>
@@ -1168,6 +1168,9 @@
   </si>
   <si>
     <t>This variable may need to be recalibrated when adapting the model</t>
+  </si>
+  <si>
+    <t>Share of New Components Energy Use (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1343,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1409,6 +1412,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1725,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1737,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1750,92 +1756,92 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>372</v>
       </c>
@@ -1880,32 +1886,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>379</v>
       </c>
@@ -26341,9 +26347,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26353,7 +26357,10 @@
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>381</v>
+      </c>
       <c r="B1" s="27" t="s">
         <v>353</v>
       </c>
@@ -26369,14 +26376,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="34">
-        <v>5.5E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>5.5E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="D2" s="34">
-        <v>5.1999999999999998E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -26384,14 +26391,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="34">
-        <v>6.2399999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C3" s="4">
         <f>B3</f>
-        <v>6.2399999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D3" s="34">
-        <v>6.2300000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -26413,14 +26420,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="34">
-        <v>0.111</v>
+        <v>0.114</v>
       </c>
       <c r="C5" s="4">
         <f>B5</f>
-        <v>0.111</v>
+        <v>0.114</v>
       </c>
       <c r="D5" s="34">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -26435,7 +26442,7 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="D6" s="34">
-        <v>7.1499999999999994E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -26443,14 +26450,14 @@
         <v>8</v>
       </c>
       <c r="B7" s="34">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="C7" s="4">
         <f>B7</f>
-        <v>6.5000000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="D7" s="34">
-        <v>6.5500000000000003E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/soceutinty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\bldgs\SoCEUtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C7DD8-4A6F-4F49-8C92-3717B88CE898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C254194-CBD9-4639-9D9E-5093C2766B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="660" windowWidth="16755" windowHeight="14505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="413">
   <si>
     <t>SoCEUtiNTY Share of Components Energy Use that is New This Year</t>
   </si>
@@ -1274,6 +1274,9 @@
   </si>
   <si>
     <t>When Calibrating, place the current values here (default is 1/component lifetime)</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1457,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1462,48 +1465,48 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="5" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="6">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1524,16 +1527,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1560,9 +1560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1600,9 +1600,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1635,26 +1635,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1687,26 +1670,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1886,20 +1852,23 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="38">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1907,192 +1876,192 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>410</v>
       </c>
@@ -2111,23 +2080,23 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="105.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-    </row>
-    <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2141,2038 +2110,2038 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>19</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="5">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="5">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="5">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>15.833333333333334</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="5">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>51.81818181818182</v>
       </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>9.1324200913242013</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="5">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="5">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="5">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>13.533333333333333</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="5">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="5">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="5">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>15.4</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="5">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="5">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="5">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="36">
         <v>2019</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="36">
         <v>2020</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="36">
         <v>2021</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="36">
         <v>2022</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <v>2023</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="36">
         <v>2024</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="36">
         <v>2025</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="36">
         <v>2026</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="36">
         <v>2027</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="36">
         <v>2028</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="36">
         <v>2029</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="36">
         <v>2030</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="36">
         <v>2031</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="36">
         <v>2032</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="36">
         <v>2033</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="36">
         <v>2034</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="36">
         <v>2035</v>
       </c>
-      <c r="S15" s="39">
+      <c r="S15" s="36">
         <v>2036</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="36">
         <v>2037</v>
       </c>
-      <c r="U15" s="39">
+      <c r="U15" s="36">
         <v>2038</v>
       </c>
-      <c r="V15" s="39">
+      <c r="V15" s="36">
         <v>2039</v>
       </c>
-      <c r="W15" s="39">
+      <c r="W15" s="36">
         <v>2040</v>
       </c>
-      <c r="X15" s="39">
+      <c r="X15" s="36">
         <v>2041</v>
       </c>
-      <c r="Y15" s="39">
+      <c r="Y15" s="36">
         <v>2042</v>
       </c>
-      <c r="Z15" s="39">
+      <c r="Z15" s="36">
         <v>2043</v>
       </c>
-      <c r="AA15" s="39">
+      <c r="AA15" s="36">
         <v>2044</v>
       </c>
-      <c r="AB15" s="39">
+      <c r="AB15" s="36">
         <v>2045</v>
       </c>
-      <c r="AC15" s="39">
+      <c r="AC15" s="36">
         <v>2046</v>
       </c>
-      <c r="AD15" s="39">
+      <c r="AD15" s="36">
         <v>2047</v>
       </c>
-      <c r="AE15" s="39">
+      <c r="AE15" s="36">
         <v>2048</v>
       </c>
-      <c r="AF15" s="39">
+      <c r="AF15" s="36">
         <v>2049</v>
       </c>
-      <c r="AG15" s="39">
+      <c r="AG15" s="36">
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="5">
         <v>6.6522199999999998</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="5">
         <v>6.4903700000000004</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="5">
         <v>6.5468299999999999</v>
       </c>
-      <c r="W16" s="38">
+      <c r="W16" s="5">
         <v>6.59368</v>
       </c>
-      <c r="X16" s="38">
+      <c r="X16" s="5">
         <v>6.6323999999999996</v>
       </c>
-      <c r="Y16" s="38">
+      <c r="Y16" s="5">
         <v>6.6633100000000001</v>
       </c>
-      <c r="Z16" s="38">
+      <c r="Z16" s="5">
         <v>6.68649</v>
       </c>
-      <c r="AA16" s="38">
+      <c r="AA16" s="5">
         <v>6.7038700000000002</v>
       </c>
-      <c r="AB16" s="38">
+      <c r="AB16" s="5">
         <v>6.7176400000000003</v>
       </c>
-      <c r="AC16" s="38">
+      <c r="AC16" s="5">
         <v>6.7318499999999997</v>
       </c>
-      <c r="AD16" s="38">
+      <c r="AD16" s="5">
         <v>6.7423099999999998</v>
       </c>
-      <c r="AE16" s="38">
+      <c r="AE16" s="5">
         <v>6.7513699999999996</v>
       </c>
-      <c r="AF16" s="38">
+      <c r="AF16" s="5">
         <v>6.7578699999999996</v>
       </c>
-      <c r="AG16" s="38">
+      <c r="AG16" s="5">
         <v>6.7690000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="5">
         <v>175.75</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="5">
         <v>175.75</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="5">
         <v>175.75</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="5">
         <v>175.75</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="5">
         <v>175.75</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="5">
         <v>175.75</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="5">
         <v>175.75</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="5">
         <v>175.75</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="5">
         <v>175.75</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="5">
         <v>175.75</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="5">
         <v>175.75</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="5">
         <v>175.75</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="5">
         <v>175.75</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="5">
         <v>175.75</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="5">
         <v>175.75</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="5">
         <v>175.75</v>
       </c>
-      <c r="R17" s="38">
+      <c r="R17" s="5">
         <v>165.77600000000001</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="5">
         <v>157.76400000000001</v>
       </c>
-      <c r="T17" s="38">
+      <c r="T17" s="5">
         <v>150.428</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="5">
         <v>143.56200000000001</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="5">
         <v>137.37899999999999</v>
       </c>
-      <c r="W17" s="38">
+      <c r="W17" s="5">
         <v>131.86799999999999</v>
       </c>
-      <c r="X17" s="38">
+      <c r="X17" s="5">
         <v>126.739</v>
       </c>
-      <c r="Y17" s="38">
+      <c r="Y17" s="5">
         <v>122.735</v>
       </c>
-      <c r="Z17" s="38">
+      <c r="Z17" s="5">
         <v>119.38200000000001</v>
       </c>
-      <c r="AA17" s="38">
+      <c r="AA17" s="5">
         <v>116.664</v>
       </c>
-      <c r="AB17" s="38">
+      <c r="AB17" s="5">
         <v>114.559</v>
       </c>
-      <c r="AC17" s="38">
+      <c r="AC17" s="5">
         <v>112.959</v>
       </c>
-      <c r="AD17" s="38">
+      <c r="AD17" s="5">
         <v>111.419</v>
       </c>
-      <c r="AE17" s="38">
+      <c r="AE17" s="5">
         <v>110.40900000000001</v>
       </c>
-      <c r="AF17" s="38">
+      <c r="AF17" s="5">
         <v>109.538</v>
       </c>
-      <c r="AG17" s="38">
+      <c r="AG17" s="5">
         <v>108.747</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B18" s="38">
-        <v>0</v>
-      </c>
-      <c r="C18" s="38">
-        <v>0</v>
-      </c>
-      <c r="D18" s="38">
-        <v>0</v>
-      </c>
-      <c r="E18" s="38">
-        <v>0</v>
-      </c>
-      <c r="F18" s="38">
-        <v>0</v>
-      </c>
-      <c r="G18" s="38">
-        <v>0</v>
-      </c>
-      <c r="H18" s="38">
-        <v>0</v>
-      </c>
-      <c r="I18" s="38">
-        <v>0</v>
-      </c>
-      <c r="J18" s="38">
-        <v>0</v>
-      </c>
-      <c r="K18" s="38">
-        <v>0</v>
-      </c>
-      <c r="L18" s="38">
-        <v>0</v>
-      </c>
-      <c r="M18" s="38">
-        <v>0</v>
-      </c>
-      <c r="N18" s="38">
-        <v>0</v>
-      </c>
-      <c r="O18" s="38">
-        <v>0</v>
-      </c>
-      <c r="P18" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="38">
-        <v>0</v>
-      </c>
-      <c r="R18" s="38">
-        <v>0</v>
-      </c>
-      <c r="S18" s="38">
-        <v>0</v>
-      </c>
-      <c r="T18" s="38">
-        <v>0</v>
-      </c>
-      <c r="U18" s="38">
-        <v>0</v>
-      </c>
-      <c r="V18" s="38">
-        <v>0</v>
-      </c>
-      <c r="W18" s="38">
-        <v>0</v>
-      </c>
-      <c r="X18" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="5">
         <v>428.26400000000001</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="5">
         <v>375.80099999999999</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="5">
         <v>365.75400000000002</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="5">
         <v>358.49700000000001</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="5">
         <v>351.45</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="5">
         <v>344.79599999999999</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="5">
         <v>340.27100000000002</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="5">
         <v>337.81799999999998</v>
       </c>
-      <c r="S19" s="38">
+      <c r="S19" s="5">
         <v>335.92200000000003</v>
       </c>
-      <c r="T19" s="38">
+      <c r="T19" s="5">
         <v>333.71199999999999</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="5">
         <v>331.52800000000002</v>
       </c>
-      <c r="V19" s="38">
+      <c r="V19" s="5">
         <v>329.59199999999998</v>
       </c>
-      <c r="W19" s="38">
+      <c r="W19" s="5">
         <v>328.41899999999998</v>
       </c>
-      <c r="X19" s="38">
+      <c r="X19" s="5">
         <v>327.96899999999999</v>
       </c>
-      <c r="Y19" s="38">
+      <c r="Y19" s="5">
         <v>327.74799999999999</v>
       </c>
-      <c r="Z19" s="38">
+      <c r="Z19" s="5">
         <v>327.25799999999998</v>
       </c>
-      <c r="AA19" s="38">
+      <c r="AA19" s="5">
         <v>326.517</v>
       </c>
-      <c r="AB19" s="38">
+      <c r="AB19" s="5">
         <v>324.58600000000001</v>
       </c>
-      <c r="AC19" s="38">
+      <c r="AC19" s="5">
         <v>322.29700000000003</v>
       </c>
-      <c r="AD19" s="38">
+      <c r="AD19" s="5">
         <v>319.74900000000002</v>
       </c>
-      <c r="AE19" s="38">
+      <c r="AE19" s="5">
         <v>317.11599999999999</v>
       </c>
-      <c r="AF19" s="38">
+      <c r="AF19" s="5">
         <v>314.51600000000002</v>
       </c>
-      <c r="AG19" s="38">
+      <c r="AG19" s="5">
         <v>308.49099999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="5">
         <v>3.2843900000000001</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="5">
         <v>2.7558199999999999</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="5">
         <v>2.7333599999999998</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="5">
         <v>2.71285</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="5">
         <v>2.6930299999999998</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="5">
         <v>2.6758000000000002</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="5">
         <v>2.6614</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="5">
         <v>2.65069</v>
       </c>
-      <c r="W20" s="38">
+      <c r="W20" s="5">
         <v>2.6451500000000001</v>
       </c>
-      <c r="X20" s="38">
+      <c r="X20" s="5">
         <v>2.6431200000000001</v>
       </c>
-      <c r="Y20" s="38">
+      <c r="Y20" s="5">
         <v>2.6446900000000002</v>
       </c>
-      <c r="Z20" s="38">
+      <c r="Z20" s="5">
         <v>2.649</v>
       </c>
-      <c r="AA20" s="38">
+      <c r="AA20" s="5">
         <v>2.6572</v>
       </c>
-      <c r="AB20" s="38">
+      <c r="AB20" s="5">
         <v>2.6675</v>
       </c>
-      <c r="AC20" s="38">
+      <c r="AC20" s="5">
         <v>2.6802600000000001</v>
       </c>
-      <c r="AD20" s="38">
+      <c r="AD20" s="5">
         <v>2.69279</v>
       </c>
-      <c r="AE20" s="38">
+      <c r="AE20" s="5">
         <v>2.7070599999999998</v>
       </c>
-      <c r="AF20" s="38">
+      <c r="AF20" s="5">
         <v>2.7215400000000001</v>
       </c>
-      <c r="AG20" s="38">
+      <c r="AG20" s="5">
         <v>2.73759</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="5">
         <v>1.4572700000000001</v>
       </c>
-      <c r="R21" s="38">
+      <c r="R21" s="5">
         <v>1.4715800000000001</v>
       </c>
-      <c r="S21" s="38">
+      <c r="S21" s="5">
         <v>1.48272</v>
       </c>
-      <c r="T21" s="38">
+      <c r="T21" s="5">
         <v>1.4990000000000001</v>
       </c>
-      <c r="U21" s="38">
+      <c r="U21" s="5">
         <v>1.5163500000000001</v>
       </c>
-      <c r="V21" s="38">
+      <c r="V21" s="5">
         <v>1.53606</v>
       </c>
-      <c r="W21" s="38">
+      <c r="W21" s="5">
         <v>1.5568599999999999</v>
       </c>
-      <c r="X21" s="38">
+      <c r="X21" s="5">
         <v>1.57416</v>
       </c>
-      <c r="Y21" s="38">
+      <c r="Y21" s="5">
         <v>1.5941000000000001</v>
       </c>
-      <c r="Z21" s="38">
+      <c r="Z21" s="5">
         <v>1.6160300000000001</v>
       </c>
-      <c r="AA21" s="38">
+      <c r="AA21" s="5">
         <v>1.6371800000000001</v>
       </c>
-      <c r="AB21" s="38">
+      <c r="AB21" s="5">
         <v>1.65693</v>
       </c>
-      <c r="AC21" s="38">
+      <c r="AC21" s="5">
         <v>1.6770700000000001</v>
       </c>
-      <c r="AD21" s="38">
+      <c r="AD21" s="5">
         <v>1.6980900000000001</v>
       </c>
-      <c r="AE21" s="38">
+      <c r="AE21" s="5">
         <v>1.72092</v>
       </c>
-      <c r="AF21" s="38">
+      <c r="AF21" s="5">
         <v>1.7459499999999999</v>
       </c>
-      <c r="AG21" s="38">
+      <c r="AG21" s="5">
         <v>1.77115</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="R22" s="38">
+      <c r="R22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="S22" s="38">
+      <c r="S22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="T22" s="38">
+      <c r="T22" s="5">
         <v>2.8238799999999999</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="5">
         <v>2.7551700000000001</v>
       </c>
-      <c r="V22" s="38">
+      <c r="V22" s="5">
         <v>2.7791399999999999</v>
       </c>
-      <c r="W22" s="38">
+      <c r="W22" s="5">
         <v>2.7990300000000001</v>
       </c>
-      <c r="X22" s="38">
+      <c r="X22" s="5">
         <v>2.8154599999999999</v>
       </c>
-      <c r="Y22" s="38">
+      <c r="Y22" s="5">
         <v>2.8285800000000001</v>
       </c>
-      <c r="Z22" s="38">
+      <c r="Z22" s="5">
         <v>2.8384200000000002</v>
       </c>
-      <c r="AA22" s="38">
+      <c r="AA22" s="5">
         <v>2.8458000000000001</v>
       </c>
-      <c r="AB22" s="38">
+      <c r="AB22" s="5">
         <v>2.8516499999999998</v>
       </c>
-      <c r="AC22" s="38">
+      <c r="AC22" s="5">
         <v>2.8576800000000002</v>
       </c>
-      <c r="AD22" s="38">
+      <c r="AD22" s="5">
         <v>2.86212</v>
       </c>
-      <c r="AE22" s="38">
+      <c r="AE22" s="5">
         <v>2.8659699999999999</v>
       </c>
-      <c r="AF22" s="38">
+      <c r="AF22" s="5">
         <v>2.8687200000000002</v>
       </c>
-      <c r="AG22" s="38">
+      <c r="AG22" s="5">
         <v>2.8734500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="P23" s="38">
+      <c r="P23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23" s="5">
         <v>74.606300000000005</v>
       </c>
-      <c r="R23" s="38">
+      <c r="R23" s="5">
         <v>70.372399999999999</v>
       </c>
-      <c r="S23" s="38">
+      <c r="S23" s="5">
         <v>66.971000000000004</v>
       </c>
-      <c r="T23" s="38">
+      <c r="T23" s="5">
         <v>63.856900000000003</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="5">
         <v>60.9422</v>
       </c>
-      <c r="V23" s="38">
+      <c r="V23" s="5">
         <v>58.317500000000003</v>
       </c>
-      <c r="W23" s="38">
+      <c r="W23" s="5">
         <v>55.978200000000001</v>
       </c>
-      <c r="X23" s="38">
+      <c r="X23" s="5">
         <v>53.800699999999999</v>
       </c>
-      <c r="Y23" s="38">
+      <c r="Y23" s="5">
         <v>52.100999999999999</v>
       </c>
-      <c r="Z23" s="38">
+      <c r="Z23" s="5">
         <v>50.677900000000001</v>
       </c>
-      <c r="AA23" s="38">
+      <c r="AA23" s="5">
         <v>49.524000000000001</v>
       </c>
-      <c r="AB23" s="38">
+      <c r="AB23" s="5">
         <v>48.630400000000002</v>
       </c>
-      <c r="AC23" s="38">
+      <c r="AC23" s="5">
         <v>47.9514</v>
       </c>
-      <c r="AD23" s="38">
+      <c r="AD23" s="5">
         <v>47.297499999999999</v>
       </c>
-      <c r="AE23" s="38">
+      <c r="AE23" s="5">
         <v>46.868600000000001</v>
       </c>
-      <c r="AF23" s="38">
+      <c r="AF23" s="5">
         <v>46.499200000000002</v>
       </c>
-      <c r="AG23" s="38">
+      <c r="AG23" s="5">
         <v>46.163400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B24" s="38">
-        <v>0</v>
-      </c>
-      <c r="C24" s="38">
-        <v>0</v>
-      </c>
-      <c r="D24" s="38">
-        <v>0</v>
-      </c>
-      <c r="E24" s="38">
-        <v>0</v>
-      </c>
-      <c r="F24" s="38">
-        <v>0</v>
-      </c>
-      <c r="G24" s="38">
-        <v>0</v>
-      </c>
-      <c r="H24" s="38">
-        <v>0</v>
-      </c>
-      <c r="I24" s="38">
-        <v>0</v>
-      </c>
-      <c r="J24" s="38">
-        <v>0</v>
-      </c>
-      <c r="K24" s="38">
-        <v>0</v>
-      </c>
-      <c r="L24" s="38">
-        <v>0</v>
-      </c>
-      <c r="M24" s="38">
-        <v>0</v>
-      </c>
-      <c r="N24" s="38">
-        <v>0</v>
-      </c>
-      <c r="O24" s="38">
-        <v>0</v>
-      </c>
-      <c r="P24" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="38">
-        <v>0</v>
-      </c>
-      <c r="R24" s="38">
-        <v>0</v>
-      </c>
-      <c r="S24" s="38">
-        <v>0</v>
-      </c>
-      <c r="T24" s="38">
-        <v>0</v>
-      </c>
-      <c r="U24" s="38">
-        <v>0</v>
-      </c>
-      <c r="V24" s="38">
-        <v>0</v>
-      </c>
-      <c r="W24" s="38">
-        <v>0</v>
-      </c>
-      <c r="X24" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="5">
         <v>181.79900000000001</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="5">
         <v>159.52799999999999</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="5">
         <v>155.26300000000001</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="5">
         <v>152.18199999999999</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="5">
         <v>149.191</v>
       </c>
-      <c r="P25" s="38">
+      <c r="P25" s="5">
         <v>146.36600000000001</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="5">
         <v>144.446</v>
       </c>
-      <c r="R25" s="38">
+      <c r="R25" s="5">
         <v>143.404</v>
       </c>
-      <c r="S25" s="38">
+      <c r="S25" s="5">
         <v>142.59899999999999</v>
       </c>
-      <c r="T25" s="38">
+      <c r="T25" s="5">
         <v>141.661</v>
       </c>
-      <c r="U25" s="38">
+      <c r="U25" s="5">
         <v>140.73400000000001</v>
       </c>
-      <c r="V25" s="38">
+      <c r="V25" s="5">
         <v>139.91200000000001</v>
       </c>
-      <c r="W25" s="38">
+      <c r="W25" s="5">
         <v>139.41399999999999</v>
       </c>
-      <c r="X25" s="38">
+      <c r="X25" s="5">
         <v>139.22300000000001</v>
       </c>
-      <c r="Y25" s="38">
+      <c r="Y25" s="5">
         <v>139.12899999999999</v>
       </c>
-      <c r="Z25" s="38">
+      <c r="Z25" s="5">
         <v>138.922</v>
       </c>
-      <c r="AA25" s="38">
+      <c r="AA25" s="5">
         <v>138.607</v>
       </c>
-      <c r="AB25" s="38">
+      <c r="AB25" s="5">
         <v>137.78700000000001</v>
       </c>
-      <c r="AC25" s="38">
+      <c r="AC25" s="5">
         <v>136.816</v>
       </c>
-      <c r="AD25" s="38">
+      <c r="AD25" s="5">
         <v>135.73400000000001</v>
       </c>
-      <c r="AE25" s="38">
+      <c r="AE25" s="5">
         <v>134.61600000000001</v>
       </c>
-      <c r="AF25" s="38">
+      <c r="AF25" s="5">
         <v>133.512</v>
       </c>
-      <c r="AG25" s="38">
+      <c r="AG25" s="5">
         <v>130.95500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="5">
         <v>1.3942300000000001</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="5">
         <v>1.1698500000000001</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="5">
         <v>1.16032</v>
       </c>
-      <c r="R26" s="38">
+      <c r="R26" s="5">
         <v>1.15161</v>
       </c>
-      <c r="S26" s="38">
+      <c r="S26" s="5">
         <v>1.1431899999999999</v>
       </c>
-      <c r="T26" s="38">
+      <c r="T26" s="5">
         <v>1.13588</v>
       </c>
-      <c r="U26" s="38">
+      <c r="U26" s="5">
         <v>1.1297699999999999</v>
       </c>
-      <c r="V26" s="38">
+      <c r="V26" s="5">
         <v>1.1252200000000001</v>
       </c>
-      <c r="W26" s="38">
+      <c r="W26" s="5">
         <v>1.12287</v>
       </c>
-      <c r="X26" s="38">
+      <c r="X26" s="5">
         <v>1.12201</v>
       </c>
-      <c r="Y26" s="38">
+      <c r="Y26" s="5">
         <v>1.1226700000000001</v>
       </c>
-      <c r="Z26" s="38">
+      <c r="Z26" s="5">
         <v>1.1245099999999999</v>
       </c>
-      <c r="AA26" s="38">
+      <c r="AA26" s="5">
         <v>1.12798</v>
       </c>
-      <c r="AB26" s="38">
+      <c r="AB26" s="5">
         <v>1.13236</v>
       </c>
-      <c r="AC26" s="38">
+      <c r="AC26" s="5">
         <v>1.1377699999999999</v>
       </c>
-      <c r="AD26" s="38">
+      <c r="AD26" s="5">
         <v>1.1430899999999999</v>
       </c>
-      <c r="AE26" s="38">
+      <c r="AE26" s="5">
         <v>1.1491499999999999</v>
       </c>
-      <c r="AF26" s="38">
+      <c r="AF26" s="5">
         <v>1.1553</v>
       </c>
-      <c r="AG26" s="38">
+      <c r="AG26" s="5">
         <v>1.16211</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="P27" s="38">
+      <c r="P27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="Q27" s="5">
         <v>618.61500000000001</v>
       </c>
-      <c r="R27" s="38">
+      <c r="R27" s="5">
         <v>624.68799999999999</v>
       </c>
-      <c r="S27" s="38">
+      <c r="S27" s="5">
         <v>629.41600000000005</v>
       </c>
-      <c r="T27" s="38">
+      <c r="T27" s="5">
         <v>636.32600000000002</v>
       </c>
-      <c r="U27" s="38">
+      <c r="U27" s="5">
         <v>643.69299999999998</v>
       </c>
-      <c r="V27" s="38">
+      <c r="V27" s="5">
         <v>652.06100000000004</v>
       </c>
-      <c r="W27" s="38">
+      <c r="W27" s="5">
         <v>660.88900000000001</v>
       </c>
-      <c r="X27" s="38">
+      <c r="X27" s="5">
         <v>668.23099999999999</v>
       </c>
-      <c r="Y27" s="38">
+      <c r="Y27" s="5">
         <v>676.69600000000003</v>
       </c>
-      <c r="Z27" s="38">
+      <c r="Z27" s="5">
         <v>686.00599999999997</v>
       </c>
-      <c r="AA27" s="38">
+      <c r="AA27" s="5">
         <v>694.98299999999995</v>
       </c>
-      <c r="AB27" s="38">
+      <c r="AB27" s="5">
         <v>703.36900000000003</v>
       </c>
-      <c r="AC27" s="38">
+      <c r="AC27" s="5">
         <v>711.91800000000001</v>
       </c>
-      <c r="AD27" s="38">
+      <c r="AD27" s="5">
         <v>720.84199999999998</v>
       </c>
-      <c r="AE27" s="38">
+      <c r="AE27" s="5">
         <v>730.53099999999995</v>
       </c>
-      <c r="AF27" s="38">
+      <c r="AF27" s="5">
         <v>741.15899999999999</v>
       </c>
-      <c r="AG27" s="38">
+      <c r="AG27" s="5">
         <v>751.85699999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="R28" s="38">
+      <c r="R28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="S28" s="38">
+      <c r="S28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="T28" s="38">
+      <c r="T28" s="5">
         <v>3.3275800000000002</v>
       </c>
-      <c r="U28" s="38">
+      <c r="U28" s="5">
         <v>3.7189700000000001</v>
       </c>
-      <c r="V28" s="38">
+      <c r="V28" s="5">
         <v>3.7238500000000001</v>
       </c>
-      <c r="W28" s="38">
+      <c r="W28" s="5">
         <v>3.7228300000000001</v>
       </c>
-      <c r="X28" s="38">
+      <c r="X28" s="5">
         <v>3.7134200000000002</v>
       </c>
-      <c r="Y28" s="38">
+      <c r="Y28" s="5">
         <v>3.7014900000000002</v>
       </c>
-      <c r="Z28" s="38">
+      <c r="Z28" s="5">
         <v>3.6882799999999998</v>
       </c>
-      <c r="AA28" s="38">
+      <c r="AA28" s="5">
         <v>3.6742599999999999</v>
       </c>
-      <c r="AB28" s="38">
+      <c r="AB28" s="5">
         <v>3.6594199999999999</v>
       </c>
-      <c r="AC28" s="38">
+      <c r="AC28" s="5">
         <v>3.6453799999999998</v>
       </c>
-      <c r="AD28" s="38">
+      <c r="AD28" s="5">
         <v>3.6310199999999999</v>
       </c>
-      <c r="AE28" s="38">
+      <c r="AE28" s="5">
         <v>3.61564</v>
       </c>
-      <c r="AF28" s="38">
+      <c r="AF28" s="5">
         <v>3.5998000000000001</v>
       </c>
-      <c r="AG28" s="38">
+      <c r="AG28" s="5">
         <v>3.5840700000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="P29" s="38">
+      <c r="P29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="5">
         <v>888.58799999999997</v>
       </c>
-      <c r="R29" s="38">
+      <c r="R29" s="5">
         <v>855.95500000000004</v>
       </c>
-      <c r="S29" s="38">
+      <c r="S29" s="5">
         <v>857.61800000000005</v>
       </c>
-      <c r="T29" s="38">
+      <c r="T29" s="5">
         <v>858.04600000000005</v>
       </c>
-      <c r="U29" s="38">
+      <c r="U29" s="5">
         <v>857.64800000000002</v>
       </c>
-      <c r="V29" s="38">
+      <c r="V29" s="5">
         <v>856.47299999999996</v>
       </c>
-      <c r="W29" s="38">
+      <c r="W29" s="5">
         <v>853.01199999999994</v>
       </c>
-      <c r="X29" s="38">
+      <c r="X29" s="5">
         <v>847.97699999999998</v>
       </c>
-      <c r="Y29" s="38">
+      <c r="Y29" s="5">
         <v>842.02800000000002</v>
       </c>
-      <c r="Z29" s="38">
+      <c r="Z29" s="5">
         <v>834.44</v>
       </c>
-      <c r="AA29" s="38">
+      <c r="AA29" s="5">
         <v>826.09900000000005</v>
       </c>
-      <c r="AB29" s="38">
+      <c r="AB29" s="5">
         <v>816.18299999999999</v>
       </c>
-      <c r="AC29" s="38">
+      <c r="AC29" s="5">
         <v>805.06299999999999</v>
       </c>
-      <c r="AD29" s="38">
+      <c r="AD29" s="5">
         <v>793.798</v>
       </c>
-      <c r="AE29" s="38">
+      <c r="AE29" s="5">
         <v>782.673</v>
       </c>
-      <c r="AF29" s="38">
+      <c r="AF29" s="5">
         <v>771.58799999999997</v>
       </c>
-      <c r="AG29" s="38">
+      <c r="AG29" s="5">
         <v>760.93399999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B30" s="38">
-        <v>0</v>
-      </c>
-      <c r="C30" s="38">
-        <v>0</v>
-      </c>
-      <c r="D30" s="38">
-        <v>0</v>
-      </c>
-      <c r="E30" s="38">
-        <v>0</v>
-      </c>
-      <c r="F30" s="38">
-        <v>0</v>
-      </c>
-      <c r="G30" s="38">
-        <v>0</v>
-      </c>
-      <c r="H30" s="38">
-        <v>0</v>
-      </c>
-      <c r="I30" s="38">
-        <v>0</v>
-      </c>
-      <c r="J30" s="38">
-        <v>0</v>
-      </c>
-      <c r="K30" s="38">
-        <v>0</v>
-      </c>
-      <c r="L30" s="38">
-        <v>0</v>
-      </c>
-      <c r="M30" s="38">
-        <v>0</v>
-      </c>
-      <c r="N30" s="38">
-        <v>0</v>
-      </c>
-      <c r="O30" s="38">
-        <v>0</v>
-      </c>
-      <c r="P30" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="38">
-        <v>0</v>
-      </c>
-      <c r="R30" s="38">
-        <v>0</v>
-      </c>
-      <c r="S30" s="38">
-        <v>0</v>
-      </c>
-      <c r="T30" s="38">
-        <v>0</v>
-      </c>
-      <c r="U30" s="38">
-        <v>0</v>
-      </c>
-      <c r="V30" s="38">
-        <v>0</v>
-      </c>
-      <c r="W30" s="38">
-        <v>0</v>
-      </c>
-      <c r="X30" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="5">
         <v>1.04592</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="5">
         <v>1.02562</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="5">
         <v>1.0079400000000001</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="5">
         <v>966.66</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="5">
         <v>909.44299999999998</v>
       </c>
-      <c r="P31" s="38">
+      <c r="P31" s="5">
         <v>850.84199999999998</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="5">
         <v>796.73199999999997</v>
       </c>
-      <c r="R31" s="38">
+      <c r="R31" s="5">
         <v>745.75699999999995</v>
       </c>
-      <c r="S31" s="38">
+      <c r="S31" s="5">
         <v>698.51300000000003</v>
       </c>
-      <c r="T31" s="38">
+      <c r="T31" s="5">
         <v>655.654</v>
       </c>
-      <c r="U31" s="38">
+      <c r="U31" s="5">
         <v>617.23900000000003</v>
       </c>
-      <c r="V31" s="38">
+      <c r="V31" s="5">
         <v>583.59199999999998</v>
       </c>
-      <c r="W31" s="38">
+      <c r="W31" s="5">
         <v>554.86300000000006</v>
       </c>
-      <c r="X31" s="38">
+      <c r="X31" s="5">
         <v>530.44000000000005</v>
       </c>
-      <c r="Y31" s="38">
+      <c r="Y31" s="5">
         <v>509.15</v>
       </c>
-      <c r="Z31" s="38">
+      <c r="Z31" s="5">
         <v>490.14299999999997</v>
       </c>
-      <c r="AA31" s="38">
+      <c r="AA31" s="5">
         <v>472.64</v>
       </c>
-      <c r="AB31" s="38">
+      <c r="AB31" s="5">
         <v>456.17399999999998</v>
       </c>
-      <c r="AC31" s="38">
+      <c r="AC31" s="5">
         <v>440.97699999999998</v>
       </c>
-      <c r="AD31" s="38">
+      <c r="AD31" s="5">
         <v>427.35599999999999</v>
       </c>
-      <c r="AE31" s="38">
+      <c r="AE31" s="5">
         <v>414.81599999999997</v>
       </c>
-      <c r="AF31" s="38">
+      <c r="AF31" s="5">
         <v>402.911</v>
       </c>
-      <c r="AG31" s="38">
+      <c r="AG31" s="5">
         <v>392.10599999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="5">
         <v>2.0589599999999999</v>
       </c>
-      <c r="P32" s="38">
+      <c r="P32" s="5">
         <v>2.1337799999999998</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32" s="5">
         <v>2.1659999999999999</v>
       </c>
-      <c r="R32" s="38">
+      <c r="R32" s="5">
         <v>2.1968899999999998</v>
       </c>
-      <c r="S32" s="38">
+      <c r="S32" s="5">
         <v>2.2243200000000001</v>
       </c>
-      <c r="T32" s="38">
+      <c r="T32" s="5">
         <v>2.2492399999999999</v>
       </c>
-      <c r="U32" s="38">
+      <c r="U32" s="5">
         <v>2.2700800000000001</v>
       </c>
-      <c r="V32" s="38">
+      <c r="V32" s="5">
         <v>2.2871000000000001</v>
       </c>
-      <c r="W32" s="38">
+      <c r="W32" s="5">
         <v>2.30023</v>
       </c>
-      <c r="X32" s="38">
+      <c r="X32" s="5">
         <v>2.3122099999999999</v>
       </c>
-      <c r="Y32" s="38">
+      <c r="Y32" s="5">
         <v>2.3234900000000001</v>
       </c>
-      <c r="Z32" s="38">
+      <c r="Z32" s="5">
         <v>2.3357700000000001</v>
       </c>
-      <c r="AA32" s="38">
+      <c r="AA32" s="5">
         <v>2.3480699999999999</v>
       </c>
-      <c r="AB32" s="38">
+      <c r="AB32" s="5">
         <v>2.3620399999999999</v>
       </c>
-      <c r="AC32" s="38">
+      <c r="AC32" s="5">
         <v>2.3764799999999999</v>
       </c>
-      <c r="AD32" s="38">
+      <c r="AD32" s="5">
         <v>2.3925100000000001</v>
       </c>
-      <c r="AE32" s="38">
+      <c r="AE32" s="5">
         <v>2.40998</v>
       </c>
-      <c r="AF32" s="38">
+      <c r="AF32" s="5">
         <v>2.4287000000000001</v>
       </c>
-      <c r="AG32" s="38">
+      <c r="AG32" s="5">
         <v>2.4476399999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="M33" s="38">
+      <c r="M33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="P33" s="38">
+      <c r="P33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="Q33" s="5">
         <v>4.0713100000000004</v>
       </c>
-      <c r="R33" s="38">
+      <c r="R33" s="5">
         <v>4.3615599999999999</v>
       </c>
-      <c r="S33" s="38">
+      <c r="S33" s="5">
         <v>4.3617900000000001</v>
       </c>
-      <c r="T33" s="38">
+      <c r="T33" s="5">
         <v>4.4010199999999999</v>
       </c>
-      <c r="U33" s="38">
+      <c r="U33" s="5">
         <v>4.4552500000000004</v>
       </c>
-      <c r="V33" s="38">
+      <c r="V33" s="5">
         <v>4.5192199999999998</v>
       </c>
-      <c r="W33" s="38">
+      <c r="W33" s="5">
         <v>4.58474</v>
       </c>
-      <c r="X33" s="38">
+      <c r="X33" s="5">
         <v>4.6565099999999999</v>
       </c>
-      <c r="Y33" s="38">
+      <c r="Y33" s="5">
         <v>4.7289599999999998</v>
       </c>
-      <c r="Z33" s="38">
+      <c r="Z33" s="5">
         <v>4.8067200000000003</v>
       </c>
-      <c r="AA33" s="38">
+      <c r="AA33" s="5">
         <v>4.8903299999999996</v>
       </c>
-      <c r="AB33" s="38">
+      <c r="AB33" s="5">
         <v>4.9785500000000003</v>
       </c>
-      <c r="AC33" s="38">
+      <c r="AC33" s="5">
         <v>5.0685000000000002</v>
       </c>
-      <c r="AD33" s="38">
+      <c r="AD33" s="5">
         <v>5.16242</v>
       </c>
-      <c r="AE33" s="38">
+      <c r="AE33" s="5">
         <v>5.2602099999999998</v>
       </c>
-      <c r="AF33" s="38">
+      <c r="AF33" s="5">
         <v>5.3597000000000001</v>
       </c>
-      <c r="AG33" s="38">
+      <c r="AG33" s="5">
         <v>5.4588099999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -4248,7 +4217,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U35" s="40">
+      <c r="U35" s="37">
         <f t="shared" si="0"/>
         <v>-2.4936945043194669E-2</v>
       </c>
@@ -4301,7 +4270,7 @@
         <v>1.6442605997932529E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>388</v>
       </c>
@@ -4365,7 +4334,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="40">
+      <c r="R36" s="37">
         <f t="shared" si="1"/>
         <v>-6.0165524563266029E-2</v>
       </c>
@@ -4430,7 +4399,7 @@
         <v>-7.273763873945919E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>389</v>
       </c>
@@ -4528,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>390</v>
       </c>
@@ -4568,7 +4537,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="37">
         <f t="shared" si="0"/>
         <v>-0.1396031410241059</v>
       </c>
@@ -4657,7 +4626,7 @@
         <v>-1.953055356558225E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>391</v>
       </c>
@@ -4713,7 +4682,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P39" s="40">
+      <c r="P39" s="37">
         <f t="shared" si="0"/>
         <v>-0.19180135132192966</v>
       </c>
@@ -4786,7 +4755,7 @@
         <v>5.8628209483523458E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>392</v>
       </c>
@@ -4850,7 +4819,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R40" s="40">
+      <c r="R40" s="37">
         <f t="shared" si="0"/>
         <v>9.7242419712146432E-3</v>
       </c>
@@ -4915,7 +4884,7 @@
         <v>1.4228043926262661E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>393</v>
       </c>
@@ -4991,7 +4960,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U41" s="40">
+      <c r="U41" s="37">
         <f t="shared" si="0"/>
         <v>-2.4938570033790953E-2</v>
       </c>
@@ -5044,7 +5013,7 @@
         <v>1.6461048565313129E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>394</v>
       </c>
@@ -5108,7 +5077,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R42" s="40">
+      <c r="R42" s="37">
         <f t="shared" si="0"/>
         <v>-6.0164212105882499E-2</v>
       </c>
@@ -5173,7 +5142,7 @@
         <v>-7.2741609153571651E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>395</v>
       </c>
@@ -5271,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>396</v>
       </c>
@@ -5311,7 +5280,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="37">
         <f t="shared" si="1"/>
         <v>-0.13960558648011645</v>
       </c>
@@ -5400,7 +5369,7 @@
         <v>-1.9525791302355676E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>397</v>
       </c>
@@ -5456,7 +5425,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P45" s="40">
+      <c r="P45" s="37">
         <f t="shared" si="2"/>
         <v>-0.19180236782493484</v>
       </c>
@@ -5529,7 +5498,7 @@
         <v>5.8600304618323419E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>398</v>
       </c>
@@ -5593,7 +5562,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R46" s="40">
+      <c r="R46" s="37">
         <f t="shared" si="2"/>
         <v>9.7216530492021287E-3</v>
       </c>
@@ -5658,7 +5627,7 @@
         <v>1.4228769566553187E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>399</v>
       </c>
@@ -5734,7 +5703,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U47" s="40">
+      <c r="U47" s="37">
         <f t="shared" si="2"/>
         <v>0.10524150504037405</v>
       </c>
@@ -5787,7 +5756,7 @@
         <v>-4.3888651728342422E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>400</v>
       </c>
@@ -5851,7 +5820,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R48" s="40">
+      <c r="R48" s="37">
         <f t="shared" si="2"/>
         <v>-3.8124667768749433E-2</v>
       </c>
@@ -5916,7 +5885,7 @@
         <v>-1.4001214297166373E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>401</v>
       </c>
@@ -6014,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>402</v>
       </c>
@@ -6054,7 +6023,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50" s="40">
+      <c r="L50" s="37">
         <f t="shared" si="2"/>
         <v>-1.9792905754567953E-2</v>
       </c>
@@ -6143,7 +6112,7 @@
         <v>-2.755632405522998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>403</v>
       </c>
@@ -6199,7 +6168,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P51" s="40">
+      <c r="P51" s="37">
         <f t="shared" si="2"/>
         <v>3.5064533363327002E-2</v>
       </c>
@@ -6272,7 +6241,7 @@
         <v>7.7380660554655653E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>404</v>
       </c>
@@ -6336,7 +6305,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R52" s="40">
+      <c r="R52" s="37">
         <f t="shared" si="2"/>
         <v>6.6547290419024269E-2</v>
       </c>
@@ -6401,21 +6370,21 @@
         <v>1.815597172277467E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="37" t="s">
+    <row r="55" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="35" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -6432,7 +6401,7 @@
         <v>0.10524150504037405</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -6449,7 +6418,7 @@
         <v>-3.8124667768749433E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -6463,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -6480,7 +6449,7 @@
         <v>-1.9792905754567953E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6466,7 @@
         <v>3.5064533363327002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -6514,23 +6483,23 @@
         <v>6.6547290419024269E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="37" t="s">
+    <row r="63" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="B64" s="37" t="s">
+    <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="35" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -6547,7 +6516,7 @@
         <v>4.70925523662961E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -6564,7 +6533,7 @@
         <v>6.4882791735546841E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -6581,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -6598,7 +6567,7 @@
         <v>0.11331032286161867</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6615,7 +6584,7 @@
         <v>6.8923961902619499E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -6632,7 +6601,7 @@
         <v>6.2230180638731709E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>387</v>
       </c>
@@ -6765,7 +6734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>388</v>
       </c>
@@ -6898,7 +6867,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>389</v>
       </c>
@@ -7000,7 +6969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>390</v>
       </c>
@@ -7133,7 +7102,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>391</v>
       </c>
@@ -7266,7 +7235,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>392</v>
       </c>
@@ -7399,7 +7368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>393</v>
       </c>
@@ -7532,7 +7501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>394</v>
       </c>
@@ -7665,7 +7634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>395</v>
       </c>
@@ -7767,7 +7736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>396</v>
       </c>
@@ -7900,7 +7869,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>397</v>
       </c>
@@ -8033,7 +8002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>398</v>
       </c>
@@ -8166,7 +8135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>399</v>
       </c>
@@ -8299,7 +8268,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>400</v>
       </c>
@@ -8432,7 +8401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>401</v>
       </c>
@@ -8534,7 +8503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -8667,7 +8636,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>403</v>
       </c>
@@ -8800,7 +8769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>404</v>
       </c>
@@ -8946,13 +8915,13 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -8960,7 +8929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8968,7 +8937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8976,7 +8945,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8984,7 +8953,7 @@
         <v>51.81818181818182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8992,7 +8961,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9000,7 +8969,7 @@
         <v>13.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9024,14 +8993,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="19.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -9144,8 +9113,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -9156,7 +9125,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -9169,7 +9138,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -9180,7 +9149,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -9191,7 +9160,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>339</v>
       </c>
@@ -9199,12 +9168,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -9320,7 +9289,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -9436,18 +9405,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>336</v>
       </c>
@@ -9566,7 +9535,7 @@
         <v>8.4399999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>334</v>
       </c>
@@ -9685,7 +9654,7 @@
         <v>1.0499E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>332</v>
       </c>
@@ -9804,7 +9773,7 @@
         <v>-7.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>330</v>
       </c>
@@ -9923,7 +9892,7 @@
         <v>8.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>329</v>
       </c>
@@ -10042,17 +10011,17 @@
         <v>3.7309999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>325</v>
       </c>
@@ -10171,7 +10140,7 @@
         <v>-7.7879999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>324</v>
       </c>
@@ -10290,12 +10259,12 @@
         <v>-8.8489999999999992E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>323</v>
       </c>
@@ -10414,7 +10383,7 @@
         <v>-1.1476E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>321</v>
       </c>
@@ -10533,17 +10502,17 @@
         <v>-1.2533000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>319</v>
       </c>
@@ -10662,7 +10631,7 @@
         <v>-1.041E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>318</v>
       </c>
@@ -10781,7 +10750,7 @@
         <v>6.9200000000000002E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>317</v>
       </c>
@@ -10900,7 +10869,7 @@
         <v>1.9040000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>316</v>
       </c>
@@ -11019,7 +10988,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>315</v>
       </c>
@@ -11138,7 +11107,7 @@
         <v>1.0992999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>314</v>
       </c>
@@ -11257,7 +11226,7 @@
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>313</v>
       </c>
@@ -11376,7 +11345,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>311</v>
       </c>
@@ -11495,7 +11464,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>310</v>
       </c>
@@ -11614,7 +11583,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>308</v>
       </c>
@@ -11733,7 +11702,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>306</v>
       </c>
@@ -11852,7 +11821,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>304</v>
       </c>
@@ -11971,7 +11940,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>302</v>
       </c>
@@ -12090,7 +12059,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>300</v>
       </c>
@@ -12209,7 +12178,7 @@
         <v>6.9309999999999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>299</v>
       </c>
@@ -12328,12 +12297,12 @@
         <v>2.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>298</v>
       </c>
@@ -12452,7 +12421,7 @@
         <v>2.9799999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>297</v>
       </c>
@@ -12571,7 +12540,7 @@
         <v>-7.4190000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>295</v>
       </c>
@@ -12690,7 +12659,7 @@
         <v>2.3839999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>294</v>
       </c>
@@ -12809,7 +12778,7 @@
         <v>3.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>293</v>
       </c>
@@ -12928,7 +12897,7 @@
         <v>6.659E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>291</v>
       </c>
@@ -13047,7 +13016,7 @@
         <v>-5.071E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>289</v>
       </c>
@@ -13166,12 +13135,12 @@
         <v>8.1099999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>288</v>
       </c>
@@ -13290,7 +13259,7 @@
         <v>-1.4128E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>287</v>
       </c>
@@ -13409,7 +13378,7 @@
         <v>-3.7629999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>286</v>
       </c>
@@ -13528,7 +13497,7 @@
         <v>-6.2040000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>285</v>
       </c>
@@ -13647,12 +13616,12 @@
         <v>-1.5632E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>283</v>
       </c>
@@ -13771,7 +13740,7 @@
         <v>-7.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>281</v>
       </c>
@@ -13890,7 +13859,7 @@
         <v>-1.7628999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>279</v>
       </c>
@@ -14009,7 +13978,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>278</v>
       </c>
@@ -14128,7 +14097,7 @@
         <v>1.4448000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>277</v>
       </c>
@@ -14247,7 +14216,7 @@
         <v>-4.9649999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>276</v>
       </c>
@@ -14366,7 +14335,7 @@
         <v>-6.3109999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>274</v>
       </c>
@@ -14485,12 +14454,12 @@
         <v>-2.0202999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>272</v>
       </c>
@@ -14609,7 +14578,7 @@
         <v>-1.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>271</v>
       </c>
@@ -14728,7 +14697,7 @@
         <v>4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>270</v>
       </c>
@@ -14847,7 +14816,7 @@
         <v>1.214E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>269</v>
       </c>
@@ -14966,7 +14935,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>268</v>
       </c>
@@ -15085,7 +15054,7 @@
         <v>5.62E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>267</v>
       </c>
@@ -15204,7 +15173,7 @@
         <v>8.5059999999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>266</v>
       </c>
@@ -15323,7 +15292,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>265</v>
       </c>
@@ -15442,7 +15411,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>264</v>
       </c>
@@ -15561,7 +15530,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>263</v>
       </c>
@@ -15680,7 +15649,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>262</v>
       </c>
@@ -15799,7 +15768,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>261</v>
       </c>
@@ -15918,7 +15887,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>260</v>
       </c>
@@ -16037,7 +16006,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>259</v>
       </c>
@@ -16156,7 +16125,7 @@
         <v>5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>258</v>
       </c>
@@ -16275,7 +16244,7 @@
         <v>5.04E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>256</v>
       </c>
@@ -16394,12 +16363,12 @@
         <v>-1.823E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>255</v>
       </c>
@@ -16518,7 +16487,7 @@
         <v>-2.343E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>253</v>
       </c>
@@ -16637,7 +16606,7 @@
         <v>-1.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>251</v>
       </c>
@@ -16756,7 +16725,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>249</v>
       </c>
@@ -16875,7 +16844,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>247</v>
       </c>
@@ -16994,7 +16963,7 @@
         <v>6.1139999999999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>245</v>
       </c>
@@ -17113,7 +17082,7 @@
         <v>6.339E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>243</v>
       </c>
@@ -17232,7 +17201,7 @@
         <v>-5.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>241</v>
       </c>
@@ -17351,7 +17320,7 @@
         <v>-2.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>239</v>
       </c>
@@ -17470,7 +17439,7 @@
         <v>-1.2541999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>237</v>
       </c>
@@ -17589,7 +17558,7 @@
         <v>9.5589999999999998E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>235</v>
       </c>
@@ -17708,7 +17677,7 @@
         <v>2.562E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>233</v>
       </c>
@@ -17827,7 +17796,7 @@
         <v>-3.4768E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>231</v>
       </c>
@@ -17946,7 +17915,7 @@
         <v>-4.6909999999999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>229</v>
       </c>
@@ -18065,7 +18034,7 @@
         <v>3.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>227</v>
       </c>
@@ -18184,12 +18153,12 @@
         <v>-5.6499999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>224</v>
       </c>
@@ -18308,7 +18277,7 @@
         <v>2.7342999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>222</v>
       </c>
@@ -18427,7 +18396,7 @@
         <v>2.7820999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>220</v>
       </c>
@@ -18546,7 +18515,7 @@
         <v>9.7493999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>219</v>
       </c>
@@ -18665,7 +18634,7 @@
         <v>9.724E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>218</v>
       </c>
@@ -18784,12 +18753,12 @@
         <v>8.5554000000000005E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>217</v>
       </c>
@@ -18908,7 +18877,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>216</v>
       </c>
@@ -19027,7 +18996,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>215</v>
       </c>
@@ -19146,7 +19115,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>214</v>
       </c>
@@ -19265,7 +19234,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>213</v>
       </c>
@@ -19384,7 +19353,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>212</v>
       </c>
@@ -19503,7 +19472,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>211</v>
       </c>
@@ -19622,7 +19591,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>210</v>
       </c>
@@ -19741,7 +19710,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>209</v>
       </c>
@@ -19860,7 +19829,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>208</v>
       </c>
@@ -19979,12 +19948,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>207</v>
       </c>
@@ -20103,7 +20072,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>206</v>
       </c>
@@ -20222,7 +20191,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>205</v>
       </c>
@@ -20341,7 +20310,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>204</v>
       </c>
@@ -20460,7 +20429,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>203</v>
       </c>
@@ -20579,7 +20548,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>202</v>
       </c>
@@ -20698,7 +20667,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>201</v>
       </c>
@@ -20817,7 +20786,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>200</v>
       </c>
@@ -20936,7 +20905,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>199</v>
       </c>
@@ -21055,7 +21024,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>198</v>
       </c>
@@ -21174,145 +21143,145 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="41" t="s">
+    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C142" s="41"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="41"/>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
-      <c r="K142" s="41"/>
-      <c r="L142" s="41"/>
-      <c r="M142" s="41"/>
-      <c r="N142" s="41"/>
-      <c r="O142" s="41"/>
-      <c r="P142" s="41"/>
-      <c r="Q142" s="41"/>
-      <c r="R142" s="41"/>
-      <c r="S142" s="41"/>
-      <c r="T142" s="41"/>
-      <c r="U142" s="41"/>
-      <c r="V142" s="41"/>
-      <c r="W142" s="41"/>
-      <c r="X142" s="41"/>
-      <c r="Y142" s="41"/>
-      <c r="Z142" s="41"/>
-      <c r="AA142" s="41"/>
-      <c r="AB142" s="41"/>
-      <c r="AC142" s="41"/>
-      <c r="AD142" s="41"/>
-      <c r="AE142" s="41"/>
-      <c r="AF142" s="41"/>
-      <c r="AG142" s="41"/>
-      <c r="AH142" s="41"/>
-      <c r="AI142" s="41"/>
-      <c r="AJ142" s="41"/>
-      <c r="AK142" s="41"/>
-      <c r="AL142" s="41"/>
-      <c r="AM142" s="41"/>
-    </row>
-    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="39"/>
+      <c r="L142" s="39"/>
+      <c r="M142" s="39"/>
+      <c r="N142" s="39"/>
+      <c r="O142" s="39"/>
+      <c r="P142" s="39"/>
+      <c r="Q142" s="39"/>
+      <c r="R142" s="39"/>
+      <c r="S142" s="39"/>
+      <c r="T142" s="39"/>
+      <c r="U142" s="39"/>
+      <c r="V142" s="39"/>
+      <c r="W142" s="39"/>
+      <c r="X142" s="39"/>
+      <c r="Y142" s="39"/>
+      <c r="Z142" s="39"/>
+      <c r="AA142" s="39"/>
+      <c r="AB142" s="39"/>
+      <c r="AC142" s="39"/>
+      <c r="AD142" s="39"/>
+      <c r="AE142" s="39"/>
+      <c r="AF142" s="39"/>
+      <c r="AG142" s="39"/>
+      <c r="AH142" s="39"/>
+      <c r="AI142" s="39"/>
+      <c r="AJ142" s="39"/>
+      <c r="AK142" s="39"/>
+      <c r="AL142" s="39"/>
+      <c r="AM142" s="39"/>
+    </row>
+    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
         <v>18</v>
       </c>
@@ -21337,14 +21306,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="19.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -21457,8 +21426,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -21469,7 +21438,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -21482,7 +21451,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -21493,7 +21462,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -21504,7 +21473,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>171</v>
       </c>
@@ -21512,12 +21481,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -21633,7 +21602,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -21749,18 +21718,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>163</v>
       </c>
@@ -21879,7 +21848,7 @@
         <v>1.0206E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>161</v>
       </c>
@@ -21998,7 +21967,7 @@
         <v>7.5760000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -22117,17 +22086,17 @@
         <v>1.0149999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>156</v>
       </c>
@@ -22246,7 +22215,7 @@
         <v>-5.5329999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>154</v>
       </c>
@@ -22365,7 +22334,7 @@
         <v>-8.9350000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>152</v>
       </c>
@@ -22484,17 +22453,17 @@
         <v>-7.2139999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>148</v>
       </c>
@@ -22613,7 +22582,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>147</v>
       </c>
@@ -22732,7 +22701,7 @@
         <v>-2.9450000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>146</v>
       </c>
@@ -22851,7 +22820,7 @@
         <v>-8.2909999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>145</v>
       </c>
@@ -22970,7 +22939,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>144</v>
       </c>
@@ -23089,7 +23058,7 @@
         <v>-6.5640000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>143</v>
       </c>
@@ -23208,7 +23177,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>142</v>
       </c>
@@ -23327,7 +23296,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>141</v>
       </c>
@@ -23446,7 +23415,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>140</v>
       </c>
@@ -23565,7 +23534,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -23684,7 +23653,7 @@
         <v>1.7672E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>137</v>
       </c>
@@ -23803,12 +23772,12 @@
         <v>5.1929999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>135</v>
       </c>
@@ -23927,7 +23896,7 @@
         <v>-6.9439999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>134</v>
       </c>
@@ -24046,7 +24015,7 @@
         <v>-1.3974E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>133</v>
       </c>
@@ -24165,7 +24134,7 @@
         <v>1.438E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>132</v>
       </c>
@@ -24284,7 +24253,7 @@
         <v>9.7310000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>131</v>
       </c>
@@ -24403,7 +24372,7 @@
         <v>1.7788999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>129</v>
       </c>
@@ -24522,12 +24491,12 @@
         <v>4.705E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>127</v>
       </c>
@@ -24646,7 +24615,7 @@
         <v>-1.0187E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -24765,7 +24734,7 @@
         <v>2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>125</v>
       </c>
@@ -24884,7 +24853,7 @@
         <v>2.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>123</v>
       </c>
@@ -25003,7 +24972,7 @@
         <v>-4.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>122</v>
       </c>
@@ -25122,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>120</v>
       </c>
@@ -25241,12 +25210,12 @@
         <v>5.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>117</v>
       </c>
@@ -25365,7 +25334,7 @@
         <v>-6.8739999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>116</v>
       </c>
@@ -25484,7 +25453,7 @@
         <v>-3.385E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>115</v>
       </c>
@@ -25603,7 +25572,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>114</v>
       </c>
@@ -25722,7 +25691,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>113</v>
       </c>
@@ -25841,7 +25810,7 @@
         <v>7.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>112</v>
       </c>
@@ -25960,7 +25929,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>111</v>
       </c>
@@ -26079,7 +26048,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>110</v>
       </c>
@@ -26198,7 +26167,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>109</v>
       </c>
@@ -26317,7 +26286,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>108</v>
       </c>
@@ -26436,7 +26405,7 @@
         <v>1.5339E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>107</v>
       </c>
@@ -26555,7 +26524,7 @@
         <v>4.561E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
@@ -26674,12 +26643,12 @@
         <v>1.1249999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
@@ -26798,7 +26767,7 @@
         <v>-6.5789999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>100</v>
       </c>
@@ -26917,7 +26886,7 @@
         <v>-5.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>98</v>
       </c>
@@ -27036,7 +27005,7 @@
         <v>-3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>96</v>
       </c>
@@ -27155,7 +27124,7 @@
         <v>-1.3679E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>94</v>
       </c>
@@ -27274,7 +27243,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>92</v>
       </c>
@@ -27393,7 +27362,7 @@
         <v>-2.2335000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>90</v>
       </c>
@@ -27512,7 +27481,7 @@
         <v>-3.0479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>88</v>
       </c>
@@ -27631,7 +27600,7 @@
         <v>-1.2841E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>86</v>
       </c>
@@ -27750,7 +27719,7 @@
         <v>1.4319E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>84</v>
       </c>
@@ -27869,7 +27838,7 @@
         <v>1.4466E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>82</v>
       </c>
@@ -27988,12 +27957,12 @@
         <v>2.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>79</v>
       </c>
@@ -28112,7 +28081,7 @@
         <v>4.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>77</v>
       </c>
@@ -28231,7 +28200,7 @@
         <v>6.2715999999999994E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>75</v>
       </c>
@@ -28350,7 +28319,7 @@
         <v>4.8741E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>73</v>
       </c>
@@ -28469,12 +28438,12 @@
         <v>4.7280999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>70</v>
       </c>
@@ -28593,7 +28562,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>69</v>
       </c>
@@ -28712,7 +28681,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>68</v>
       </c>
@@ -28831,7 +28800,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>67</v>
       </c>
@@ -28950,7 +28919,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>66</v>
       </c>
@@ -29069,7 +29038,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>65</v>
       </c>
@@ -29188,7 +29157,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>64</v>
       </c>
@@ -29307,7 +29276,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>63</v>
       </c>
@@ -29426,7 +29395,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>62</v>
       </c>
@@ -29545,7 +29514,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>61</v>
       </c>
@@ -29664,12 +29633,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>59</v>
       </c>
@@ -29788,7 +29757,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>57</v>
       </c>
@@ -29907,7 +29876,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>55</v>
       </c>
@@ -30026,7 +29995,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>53</v>
       </c>
@@ -30145,7 +30114,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>51</v>
       </c>
@@ -30264,7 +30233,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>49</v>
       </c>
@@ -30383,7 +30352,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>47</v>
       </c>
@@ -30502,7 +30471,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>45</v>
       </c>
@@ -30621,7 +30590,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>43</v>
       </c>
@@ -30740,7 +30709,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>41</v>
       </c>
@@ -30859,150 +30828,150 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="41" t="s">
+    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
-      <c r="M118" s="41"/>
-      <c r="N118" s="41"/>
-      <c r="O118" s="41"/>
-      <c r="P118" s="41"/>
-      <c r="Q118" s="41"/>
-      <c r="R118" s="41"/>
-      <c r="S118" s="41"/>
-      <c r="T118" s="41"/>
-      <c r="U118" s="41"/>
-      <c r="V118" s="41"/>
-      <c r="W118" s="41"/>
-      <c r="X118" s="41"/>
-      <c r="Y118" s="41"/>
-      <c r="Z118" s="41"/>
-      <c r="AA118" s="41"/>
-      <c r="AB118" s="41"/>
-      <c r="AC118" s="41"/>
-      <c r="AD118" s="41"/>
-      <c r="AE118" s="41"/>
-      <c r="AF118" s="41"/>
-      <c r="AG118" s="41"/>
-      <c r="AH118" s="41"/>
-      <c r="AI118" s="41"/>
-      <c r="AJ118" s="41"/>
-      <c r="AK118" s="41"/>
-      <c r="AL118" s="41"/>
-      <c r="AM118" s="41"/>
-    </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="39"/>
+      <c r="M118" s="39"/>
+      <c r="N118" s="39"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="39"/>
+      <c r="Q118" s="39"/>
+      <c r="R118" s="39"/>
+      <c r="S118" s="39"/>
+      <c r="T118" s="39"/>
+      <c r="U118" s="39"/>
+      <c r="V118" s="39"/>
+      <c r="W118" s="39"/>
+      <c r="X118" s="39"/>
+      <c r="Y118" s="39"/>
+      <c r="Z118" s="39"/>
+      <c r="AA118" s="39"/>
+      <c r="AB118" s="39"/>
+      <c r="AC118" s="39"/>
+      <c r="AD118" s="39"/>
+      <c r="AE118" s="39"/>
+      <c r="AF118" s="39"/>
+      <c r="AG118" s="39"/>
+      <c r="AH118" s="39"/>
+      <c r="AI118" s="39"/>
+      <c r="AJ118" s="39"/>
+      <c r="AK118" s="39"/>
+      <c r="AL118" s="39"/>
+      <c r="AM118" s="39"/>
+    </row>
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
         <v>18</v>
       </c>
@@ -31024,21 +30993,21 @@
       <selection activeCell="B55" sqref="B55:B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -31148,7 +31117,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -31297,7 +31266,7 @@
         <v>2.0387429639167166E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -31306,19 +31275,19 @@
         <v>2.1866115765726366E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>184</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
         <v>344</v>
       </c>
@@ -31326,7 +31295,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -31334,7 +31303,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -31342,7 +31311,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>342</v>
       </c>
@@ -31350,12 +31319,12 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2015</v>
       </c>
@@ -31465,7 +31434,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -31610,7 +31579,7 @@
         <v>106.80688818099999</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>341</v>
       </c>
@@ -31755,7 +31724,7 @@
         <v>40.991097584999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -31900,12 +31869,12 @@
         <v>4.4407329119999996</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2015</v>
       </c>
@@ -32015,7 +31984,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -32160,7 +32129,7 @@
         <v>1.1215938190000116</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>341</v>
       </c>
@@ -32305,7 +32274,7 @@
         <v>0.52974641499999819</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>342</v>
       </c>
@@ -32450,12 +32419,12 @@
         <v>0.12269708800000068</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2015</v>
       </c>
@@ -32565,7 +32534,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -32710,7 +32679,7 @@
         <v>1.0501137502473678E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>341</v>
       </c>
@@ -32855,7 +32824,7 @@
         <v>1.2923450363862663E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>342</v>
       </c>
@@ -33000,15 +32969,15 @@
         <v>2.7629918401181404E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -33017,7 +32986,7 @@
         <v>1.143000484613816E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>341</v>
       </c>
@@ -33026,7 +32995,7 @@
         <v>1.5514513735396921E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -33035,12 +33004,12 @@
         <v>2.7312273593190856E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -33049,34 +33018,34 @@
         <v>1.3254110935573082E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>356</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -33085,7 +33054,7 @@
         <v>0.97813388423427361</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>362</v>
       </c>
@@ -33094,12 +33063,12 @@
         <v>0.98674588906442695</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -33108,7 +33077,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -33117,7 +33086,7 @@
         <v>6.3157894736842107E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -33126,7 +33095,7 @@
         <v>0.1095</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -33135,7 +33104,7 @@
         <v>7.3891625615763554E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -33144,12 +33113,12 @@
         <v>6.4935064935064929E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>361</v>
       </c>
@@ -33157,7 +33126,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -33170,7 +33139,7 @@
         <v>6.5188105096858712E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -33183,7 +33152,7 @@
         <v>7.5574903929115839E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -33196,7 +33165,7 @@
         <v>0.12130278578812782</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -33209,7 +33178,7 @@
         <v>8.6166368748215469E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -33236,15 +33205,15 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
         <v>353</v>
       </c>
@@ -33255,7 +33224,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -33272,7 +33241,7 @@
         <v>7.3346846514898659E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -33289,7 +33258,7 @@
         <v>8.3642992664733129E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -33303,7 +33272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -33320,7 +33289,7 @@
         <v>0.12897177608937932</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -33337,7 +33306,7 @@
         <v>9.4142018541657921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33354,15 +33323,15 @@
         <v>8.5381303053666202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -33376,7 +33345,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -33393,7 +33362,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -33410,7 +33379,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -33427,7 +33396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -33444,7 +33413,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -33461,7 +33430,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -33494,15 +33463,15 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>381</v>
       </c>
@@ -33516,91 +33485,91 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="4">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="4">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="4">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="4">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
-        <v>0</v>
-      </c>
-      <c r="D4" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="4">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="4">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="4">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="4">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="4">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="4">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="4">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="4">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="4">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
   </sheetData>
